--- a/Knowledge/01_SpringBootOverview_Overview_20201116.xlsx
+++ b/Knowledge/01_SpringBootOverview_Overview_20201116.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Update history</t>
   </si>
@@ -183,6 +183,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
       <t>Spring Boot là open source Java frame work đ</t>
     </r>
     <r>
@@ -685,6 +690,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
       <t>Tính năng tiêu bi</t>
     </r>
     <r>
@@ -709,6 +719,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
       <t>Mô t</t>
     </r>
     <r>
@@ -730,6 +745,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
       <t>Cách th</t>
     </r>
     <r>
@@ -815,6 +835,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
       <t>X</t>
     </r>
     <r>
@@ -836,6 +861,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
       <t>Qu</t>
     </r>
     <r>
@@ -857,6 +887,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
       <t>C</t>
     </r>
     <r>
@@ -913,6 +948,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
       <t>Qu</t>
     </r>
     <r>
@@ -946,6 +986,9 @@
   </si>
   <si>
     <t>URL tham chiếu tài liệu</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/spring_boot/spring_boot_introduction.htm</t>
   </si>
   <si>
     <r>
@@ -1145,12 +1188,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1220,11 +1263,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Meiryo UI"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Courier New"/>
       <charset val="134"/>
     </font>
@@ -1252,9 +1290,11 @@
     </font>
     <font>
       <u/>
-      <sz val="8"/>
-      <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1275,6 +1315,81 @@
       <color theme="1"/>
       <name val="Meiryo UI"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1292,6 +1407,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1300,37 +1431,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1344,33 +1445,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1382,65 +1460,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <name val="Arial"/>
@@ -1501,7 +1520,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,13 +1640,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,157 +1700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1943,21 +1962,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1987,16 +1991,45 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2016,187 +2049,173 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -2291,50 +2310,47 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="37" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="37" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="37" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2395,7 +2411,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
@@ -2416,17 +2432,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2815,138 +2831,138 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="75"/>
-    <col min="2" max="2" width="5" style="75" customWidth="1"/>
-    <col min="3" max="3" width="13" style="75" customWidth="1"/>
-    <col min="4" max="4" width="39.25" style="75" customWidth="1"/>
-    <col min="5" max="8" width="11.3796296296296" style="75" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="75"/>
+    <col min="1" max="1" width="9" style="74"/>
+    <col min="2" max="2" width="5" style="74" customWidth="1"/>
+    <col min="3" max="3" width="13" style="74" customWidth="1"/>
+    <col min="4" max="4" width="39.25" style="74" customWidth="1"/>
+    <col min="5" max="8" width="11.3796296296296" style="74" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="74"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.8" spans="2:2">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="75" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.15"/>
     <row r="3" spans="2:8">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="78" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="80">
+      <c r="B4" s="79">
         <f>ROW()-4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="83" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="85">
+      <c r="B5" s="84">
         <f t="shared" ref="B5:B10" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="88"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="85">
+      <c r="B6" s="84">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="89"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="88"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="85">
+      <c r="B7" s="84">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="89"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="88"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="85">
+      <c r="B8" s="84">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="89"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="85">
+      <c r="B9" s="84">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="93"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
     </row>
     <row r="10" ht="15.15" spans="2:8">
-      <c r="B10" s="94">
+      <c r="B10" s="93">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="98"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="97"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2970,379 +2986,381 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="40" customWidth="1"/>
-    <col min="2" max="2" width="25" style="41" customWidth="1"/>
-    <col min="3" max="3" width="22.1296296296296" style="42" customWidth="1"/>
-    <col min="4" max="4" width="121.25" style="42" customWidth="1"/>
-    <col min="5" max="5" width="9" style="43"/>
-    <col min="6" max="8" width="9" style="42"/>
-    <col min="9" max="9" width="9" style="42" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="42"/>
+    <col min="1" max="1" width="4.75" style="39" customWidth="1"/>
+    <col min="2" max="2" width="25" style="40" customWidth="1"/>
+    <col min="3" max="3" width="22.1296296296296" style="41" customWidth="1"/>
+    <col min="4" max="4" width="121.25" style="41" customWidth="1"/>
+    <col min="5" max="5" width="9" style="42"/>
+    <col min="6" max="8" width="9" style="41"/>
+    <col min="9" max="9" width="9" style="41" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.8" spans="1:6">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="46"/>
-    </row>
-    <row r="2" s="39" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A2" s="48" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
-    </row>
-    <row r="3" s="39" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A3" s="53">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
+    </row>
+    <row r="3" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-    </row>
-    <row r="4" s="39" customFormat="1" ht="83.25" customHeight="1" spans="1:6">
-      <c r="A4" s="53">
+      <c r="D3" s="55"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+    </row>
+    <row r="4" s="38" customFormat="1" ht="83.25" customHeight="1" spans="1:6">
+      <c r="A4" s="52">
         <v>3</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
-    </row>
-    <row r="5" s="39" customFormat="1" ht="207.75" customHeight="1" spans="1:6">
-      <c r="A5" s="53">
+      <c r="D4" s="55"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+    </row>
+    <row r="5" s="38" customFormat="1" ht="207.75" customHeight="1" spans="1:6">
+      <c r="A5" s="52">
         <v>4</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="59"/>
-    </row>
-    <row r="6" s="39" customFormat="1" ht="200.25" customHeight="1" spans="1:6">
-      <c r="A6" s="53">
+      <c r="D5" s="54"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="58"/>
+    </row>
+    <row r="6" s="38" customFormat="1" ht="200.25" customHeight="1" spans="1:6">
+      <c r="A6" s="52">
         <v>5</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="59"/>
-    </row>
-    <row r="7" s="39" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A7" s="61">
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="58"/>
+    </row>
+    <row r="7" s="38" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A7" s="60">
         <v>6</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
-    </row>
-    <row r="8" s="39" customFormat="1" ht="22.8" spans="1:6">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="67" t="s">
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
+    </row>
+    <row r="8" s="38" customFormat="1" ht="22.8" spans="1:6">
+      <c r="A8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
-    </row>
-    <row r="9" s="39" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="67" t="s">
+      <c r="D8" s="66"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+    </row>
+    <row r="9" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
-    </row>
-    <row r="10" s="39" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="56" t="s">
+      <c r="D9" s="66"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+    </row>
+    <row r="10" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
-    </row>
-    <row r="11" s="39" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="56" t="s">
+      <c r="D10" s="55"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+    </row>
+    <row r="11" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A11" s="64"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-    </row>
-    <row r="12" s="39" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="55" t="s">
+      <c r="D11" s="55"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
+    </row>
+    <row r="12" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A12" s="64"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-    </row>
-    <row r="13" s="39" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="56" t="s">
+      <c r="D12" s="66"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+    </row>
+    <row r="13" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A13" s="64"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-    </row>
-    <row r="14" s="39" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A14" s="65"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="56" t="s">
+      <c r="D13" s="55"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+    </row>
+    <row r="14" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A14" s="64"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-    </row>
-    <row r="15" s="39" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-    </row>
-    <row r="16" s="39" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-    </row>
-    <row r="17" s="39" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-    </row>
-    <row r="18" s="39" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
-    </row>
-    <row r="19" s="39" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A19" s="61">
+      <c r="D14" s="55"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+    </row>
+    <row r="15" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A15" s="64"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
+    </row>
+    <row r="16" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A16" s="64"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+    </row>
+    <row r="17" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+    </row>
+    <row r="18" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
+    </row>
+    <row r="19" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A19" s="60">
         <v>8</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-    </row>
-    <row r="20" s="39" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-    </row>
-    <row r="21" s="39" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A21" s="65"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-    </row>
-    <row r="22" s="39" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
-    </row>
-    <row r="23" s="39" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
-    </row>
-    <row r="24" s="39" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A24" s="53">
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
+    </row>
+    <row r="20" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A20" s="64"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
+    </row>
+    <row r="21" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A21" s="64"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+    </row>
+    <row r="22" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A22" s="64"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
+    </row>
+    <row r="23" s="38" customFormat="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
+    </row>
+    <row r="24" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A24" s="52">
         <v>9</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
-    </row>
-    <row r="25" s="39" customFormat="1" ht="14.4" spans="1:6">
-      <c r="A25" s="53">
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51"/>
+    </row>
+    <row r="25" s="38" customFormat="1" ht="14.4" spans="1:6">
+      <c r="A25" s="52">
         <v>10</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
-    </row>
-    <row r="26" ht="14.4" spans="1:6">
-      <c r="A26" s="69"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
+      <c r="C25" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="55"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="68"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
     </row>
     <row r="27" ht="14.4" spans="1:6">
-      <c r="A27" s="69"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="52"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="51"/>
     </row>
     <row r="28" ht="14.4" spans="1:6">
-      <c r="A28" s="69"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="52"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="51"/>
     </row>
     <row r="29" ht="14.4" spans="1:6">
-      <c r="A29" s="69"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="52"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
     </row>
     <row r="30" ht="14.4" spans="1:6">
-      <c r="A30" s="69"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
     </row>
     <row r="31" ht="14.4" spans="1:6">
-      <c r="A31" s="69"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="52"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="51"/>
     </row>
     <row r="32" ht="14.4" spans="1:6">
-      <c r="A32" s="69"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="52"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="51"/>
     </row>
     <row r="33" ht="14.4" spans="1:6">
-      <c r="A33" s="69"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="52"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="51"/>
     </row>
     <row r="34" ht="14.4" spans="1:6">
-      <c r="A34" s="69"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="52"/>
+      <c r="A34" s="68"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="51"/>
     </row>
     <row r="35" ht="14.4" spans="1:6">
-      <c r="A35" s="69"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="51"/>
     </row>
     <row r="36" ht="14.4" spans="1:6">
-      <c r="A36" s="69"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="52"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="51"/>
     </row>
     <row r="37" ht="14.4" spans="1:6">
-      <c r="A37" s="71"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="73"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -3364,6 +3382,9 @@
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B19:B23"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C25" r:id="rId1" display="https://www.tutorialspoint.com/spring_boot/spring_boot_introduction.htm"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
@@ -3396,7 +3417,7 @@
   <sheetData>
     <row r="1" ht="22.8" spans="2:3">
       <c r="B1" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="26"/>
     </row>
@@ -3406,22 +3427,22 @@
         <v>13</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" ht="45.6" spans="2:8">
@@ -3430,19 +3451,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4" s="31"/>
-      <c r="G4" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="33"/>
+      <c r="G4" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="30">
@@ -3451,77 +3472,77 @@
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" s="31"/>
       <c r="G5" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="33"/>
+        <v>50</v>
+      </c>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="20"/>
       <c r="E6" s="16"/>
       <c r="F6" s="31"/>
       <c r="G6" s="20"/>
-      <c r="H6" s="33"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="20"/>
       <c r="E7" s="16"/>
       <c r="F7" s="31"/>
       <c r="G7" s="20"/>
-      <c r="H7" s="33"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="20"/>
       <c r="E8" s="16"/>
       <c r="F8" s="31"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="33"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="30">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="20"/>
       <c r="E9" s="16"/>
       <c r="F9" s="31"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="33"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="2:8">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
+      <c r="C10" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -3570,7 +3591,7 @@
     <row r="1" ht="22.8" spans="1:9">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -3597,25 +3618,25 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3" s="22"/>
     </row>
@@ -3626,7 +3647,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
